--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/15/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.894300000000002</v>
+        <v>5.876600000000004</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.10149999999999</v>
+        <v>16.2498</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.53900000000001</v>
+        <v>-21.5648</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.720599999999994</v>
+        <v>6.714600000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.016</v>
+        <v>15.92119999999999</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.28220000000001</v>
+        <v>17.28590000000001</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.792600000000004</v>
+        <v>3.867800000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.68999999999998</v>
+        <v>-21.8293</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.87110000000001</v>
+        <v>15.71290000000001</v>
       </c>
     </row>
     <row r="31">
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.355800000000004</v>
+        <v>5.508000000000004</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.2316</v>
+        <v>-21.1889</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.324800000000003</v>
+        <v>9.462300000000004</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.00990000000001</v>
+        <v>-19.9835</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.151700000000002</v>
+        <v>8.946400000000004</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.25960000000001</v>
+        <v>-19.34070000000001</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.93749999999999</v>
+        <v>16.73759999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>7.064199999999997</v>
+        <v>6.7126</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.5532</v>
+        <v>-21.60409999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.4728</v>
+        <v>16.43019999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.188</v>
+        <v>5.0711</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.63599999999999</v>
+        <v>-21.66819999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.50820000000001</v>
+        <v>-22.63590000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.25150000000001</v>
+        <v>-22.24520000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.654899999999995</v>
+        <v>4.725599999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.22540000000001</v>
+        <v>16.46250000000002</v>
       </c>
     </row>
     <row r="59">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.48059999999998</v>
+        <v>-21.44739999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.60169999999998</v>
+        <v>-21.55489999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.07120000000002</v>
+        <v>-22.15720000000002</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.63000000000003</v>
+        <v>16.58610000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.5347</v>
+        <v>6.535800000000002</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.53999999999999</v>
+        <v>-21.77089999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.761700000000003</v>
+        <v>5.548300000000004</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.59159999999999</v>
+        <v>16.65320000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.9993</v>
+        <v>-22.09990000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.38590000000002</v>
+        <v>17.35480000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.4078</v>
+        <v>-21.39190000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>18.02040000000001</v>
+        <v>17.99500000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2004,12 +2004,12 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.9632</v>
+        <v>18.00340000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.37049999999999</v>
+        <v>-21.2391</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.39239999999999</v>
+        <v>16.18169999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-19.92089999999999</v>
+        <v>-20.14309999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.254399999999993</v>
+        <v>5.224299999999996</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.432800000000006</v>
+        <v>8.193400000000002</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.64729999999999</v>
+        <v>16.73759999999998</v>
       </c>
     </row>
   </sheetData>
